--- a/111.xlsx
+++ b/111.xlsx
@@ -12,24 +12,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>姓名</t>
   </si>
   <si>
-    <t>年龄</t>
+    <t>电话</t>
   </si>
   <si>
-    <t>桌号</t>
+    <t>所属部门</t>
+  </si>
+  <si>
+    <t>个人行程（如果有每个行程以英文分号隔开，如果没有则不填写）</t>
   </si>
   <si>
     <t>老王</t>
   </si>
   <si>
+    <t>组织部</t>
+  </si>
+  <si>
+    <t>会议1，6月10号上午9点;会议2，6月10号上午11点;会议3，6月11号上午11点;</t>
+  </si>
+  <si>
     <t>老李</t>
   </si>
   <si>
+    <t>宣传部</t>
+  </si>
+  <si>
     <t>老张</t>
+  </si>
+  <si>
+    <t>安保部</t>
   </si>
 </sst>
 </file>
@@ -256,7 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -268,7 +283,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -278,9 +296,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1377,7 +1392,7 @@
     <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="67.3984" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
@@ -1394,217 +1409,221 @@
       <c r="C1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
+      <c r="D1" t="s" s="4">
+        <v>3</v>
+      </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" ht="22.55" customHeight="1">
       <c r="A2" t="s" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="7">
-        <v>12</v>
+        <v>13811112222</v>
       </c>
-      <c r="C2" s="8">
-        <v>11</v>
+      <c r="C2" t="s" s="8">
+        <v>5</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" t="s" s="8">
+        <v>6</v>
+      </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
     <row r="3" ht="22.35" customHeight="1">
       <c r="A3" t="s" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="11">
-        <v>22</v>
+        <v>13822223333</v>
       </c>
-      <c r="C3" s="12">
-        <v>12</v>
+      <c r="C3" t="s" s="12">
+        <v>8</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" ht="22.35" customHeight="1">
       <c r="A4" t="s" s="10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="11">
-        <v>32</v>
+        <v>13833334444</v>
       </c>
-      <c r="C4" s="12">
-        <v>13</v>
+      <c r="C4" t="s" s="12">
+        <v>10</v>
       </c>
       <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
